--- a/10 - Rychlost šíření zvuku/Měření_rychlost zvuku.xlsx
+++ b/10 - Rychlost šíření zvuku/Měření_rychlost zvuku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\10 - Rychlost šíření zvuku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E726A-552B-4BDE-BC31-6830ADE49BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76AB9AD-E1BC-42D5-834F-3AEAD1487C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF7B3BF4-C2E5-4ABE-B12A-616E8ED823C3}"/>
+    <workbookView xWindow="5760" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{EF7B3BF4-C2E5-4ABE-B12A-616E8ED823C3}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -229,10 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -574,8 +573,8 @@
   </sheetPr>
   <dimension ref="B2:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,11 +681,8 @@
         <v>3.016</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-    </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
@@ -694,7 +690,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>0.62</v>
       </c>
       <c r="D19" s="1">
@@ -707,7 +703,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0.62</v>
       </c>
       <c r="C21" t="s">
@@ -743,9 +739,9 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
-        <f>(B19+B20+B21)/3</f>
-        <v>0.6203333333333334</v>
+      <c r="B24" s="3">
+        <f>(B19+B20+B21)/6</f>
+        <v>0.3101666666666667</v>
       </c>
       <c r="C24" s="1">
         <v>0.625</v>
@@ -787,7 +783,7 @@
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <f>(B27/B24)*B16</f>
-        <v>1684.0462375067168</v>
+        <v>3368.0924750134336</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -798,50 +794,8 @@
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <f>B30*B30*B8</f>
-        <v>24389700878.520554</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+        <v>97558803514.082214</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
@@ -860,7 +814,7 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>0.08</v>
       </c>
       <c r="C53" s="1">
@@ -884,7 +838,7 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>2148</v>
       </c>
       <c r="C56" s="1">
@@ -905,7 +859,7 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <f>2*B53*B56</f>
         <v>343.68</v>
       </c>
@@ -1013,7 +967,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="1">
         <v>509</v>
       </c>
@@ -1032,7 +986,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
       <c r="C78" s="1">
         <v>1012</v>
       </c>
@@ -1051,7 +1005,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="4" t="e">
+      <c r="B81" s="3" t="e">
         <f>(B72*B72*B75)/(C8*B78)</f>
         <v>#DIV/0!</v>
       </c>
